--- a/data/income_statement/1digit/size/M_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/M_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>M-Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>M-Professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1463 +841,1653 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5714324.024200001</v>
+        <v>5868094.104970001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6558841.048769999</v>
+        <v>6715478.07057</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8721962.08061</v>
+        <v>8914243.011360001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10463472.03227</v>
+        <v>10710151.62845</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13823498.83307</v>
+        <v>14175404.31507</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>16198893.85096</v>
+        <v>16618034.30433</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18628596.98854</v>
+        <v>19109505.65662</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>21842123.72739</v>
+        <v>22361782.10619</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>26596839.29942</v>
+        <v>27251589.9646</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>29802675.6785</v>
+        <v>30751737.65659999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>31479956.1677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33296606.1757</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>39399778.38</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5228572.051770002</v>
+        <v>5341318.52549</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5996849.575750002</v>
+        <v>6120350.80235</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7954108.40534</v>
+        <v>8084724.091440002</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9438629.080710003</v>
+        <v>9576530.459259996</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12595544.50313</v>
+        <v>12820166.18863</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14717745.88965</v>
+        <v>14946774.1826</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>17138275.32619</v>
+        <v>17412264.08982</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>20205804.58488</v>
+        <v>20490625.52986</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>24297125.81146</v>
+        <v>24708658.27755</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26828382.41102</v>
+        <v>27573244.84024001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>27815590.58504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>29225853.67974</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>34449060.722</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>342247.33129</v>
+        <v>351240.04881</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>411835.3841099999</v>
+        <v>419457.2770599999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>530700.4493699999</v>
+        <v>560435.6208900001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>768760.32436</v>
+        <v>811290.8224000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>940829.7160299999</v>
+        <v>987426.83998</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1115657.22942</v>
+        <v>1216272.90961</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1108444.67915</v>
+        <v>1195444.36954</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1198628.7464</v>
+        <v>1313867.03576</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1742822.06401</v>
+        <v>1833746.46297</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2256407.24207</v>
+        <v>2277546.36754</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2927327.06312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3030552.04304</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3878965.761</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>143504.64114</v>
+        <v>175535.53067</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>150156.08891</v>
+        <v>175669.99116</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>237153.2259</v>
+        <v>269083.29903</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>256082.6272</v>
+        <v>322330.34679</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>287124.61391</v>
+        <v>367811.28646</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>365490.7318900001</v>
+        <v>454987.21212</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>381876.9831999999</v>
+        <v>501797.19726</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>437690.39611</v>
+        <v>557289.54057</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>556891.4239500002</v>
+        <v>709185.2240800001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>717886.02541</v>
+        <v>900946.44882</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>737038.51954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1040200.45292</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1071751.897</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>63039.35174000001</v>
+        <v>69526.27256</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>70596.08655000001</v>
+        <v>83114.59030999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>73000.18104000001</v>
+        <v>76368.03952999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>92392.90747999998</v>
+        <v>99077.06629</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>114211.21578</v>
+        <v>125019.27352</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>114500.49807</v>
+        <v>114102.18557</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>132886.01057</v>
+        <v>133557.12383</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>162661.4746</v>
+        <v>226138.4586</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>177381.62831</v>
+        <v>180249.87899</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>356915.3861900001</v>
+        <v>375133.86227</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>610507.9073399998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>398317.15457</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>622839.6899999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>39946.53542</v>
+        <v>46166.45914</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>49554.98828</v>
+        <v>57893.72222</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>50881.06539999999</v>
+        <v>54350.51799999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>68639.05245</v>
+        <v>72428.50787</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>90017.61583999998</v>
+        <v>98901.70122999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>86082.33041</v>
+        <v>84703.93793</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>100658.90271</v>
+        <v>101379.31646</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>133145.53577</v>
+        <v>194474.22459</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>140506.63898</v>
+        <v>138066.66278</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>301180.3802300001</v>
+        <v>316799.48463</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>552326.56985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>306448.17339</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>556376.791</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>20544.74312</v>
+        <v>20780.82136</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>13982.97415</v>
+        <v>18195.74693</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>17199.7657</v>
+        <v>17298.1939</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>19149.96703</v>
+        <v>20304.23862</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>15748.83674</v>
+        <v>15862.06084</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>13298.44435</v>
+        <v>14472.41683</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>19308.96339</v>
+        <v>18917.61802</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>17609.06475999999</v>
+        <v>17982.49856</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>20070.2989</v>
+        <v>20358.33228000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>32284.53657</v>
+        <v>33791.09676000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>40038.46081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>42214.1274</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>41964.09</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2548.0732</v>
+        <v>2578.99206</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7058.12412</v>
+        <v>7025.121160000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4919.349939999999</v>
+        <v>4719.32763</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4603.888</v>
+        <v>6344.3198</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8444.763199999999</v>
+        <v>10255.51145</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15119.72331</v>
+        <v>14925.83081</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12918.14447</v>
+        <v>13260.18935</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>11906.87407</v>
+        <v>13681.73545</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>16804.69043</v>
+        <v>21824.88393</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>23450.46939000001</v>
+        <v>24543.28088</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>18142.87668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49654.85378</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>24498.809</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5651284.67246</v>
+        <v>5798567.83241</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6488244.96222</v>
+        <v>6632363.48026</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8648961.899569999</v>
+        <v>8837874.971829999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10371079.12479</v>
+        <v>10611074.56216</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13709287.61729</v>
+        <v>14050385.04155</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>16084393.35289</v>
+        <v>16503932.11876</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>18495710.97797</v>
+        <v>18975948.53279</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>21679462.25279</v>
+        <v>22135643.64759</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>26419457.67111</v>
+        <v>27071340.08561</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>29445760.29231</v>
+        <v>30376603.79433</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>30869448.26036001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32898289.02113</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>38776938.69</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3904218.7417</v>
+        <v>3978305.45657</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4388802.048160001</v>
+        <v>4453458.297419999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5961196.097599999</v>
+        <v>6030442.202799999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7354700.789779998</v>
+        <v>7456250.30809</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9721311.689780001</v>
+        <v>9865030.51606</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11493142.64683</v>
+        <v>11697483.02211</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13308655.38568</v>
+        <v>13573864.16829</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>15811898.73901</v>
+        <v>16020651.79105</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>19489334.87827</v>
+        <v>19832384.5246</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>21815537.72315</v>
+        <v>22136320.64922</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22917814.83149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24206984.16957</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28419257.047</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>312938.61274</v>
+        <v>304310.40621</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>383708.49017</v>
+        <v>369170.6525499999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>462654.02636</v>
+        <v>452076.35048</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>520175.16613</v>
+        <v>498548.9066</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>668736.8364800001</v>
+        <v>653254.95902</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>877413.0255399999</v>
+        <v>847533.77188</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1093241.77246</v>
+        <v>1085778.28664</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1290993.79307</v>
+        <v>1242890.10165</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1730262.71061</v>
+        <v>1736006.95425</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1828604.40319</v>
+        <v>1764101.13982</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2056432.62547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2027123.61513</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2709770.711</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>887257.8932299999</v>
+        <v>872289.1469500001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>937661.85765</v>
+        <v>922775.71499</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1368509.32474</v>
+        <v>1345227.05294</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1812938.79279</v>
+        <v>1830367.6293</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2095111.4081</v>
+        <v>2087170.86756</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2532304.92363</v>
+        <v>2566201.07366</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2991368.61141</v>
+        <v>3067599.966349999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3927448.25732</v>
+        <v>3974935.63318</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5141323.638859998</v>
+        <v>5284708.213129999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5160398.61576</v>
+        <v>5183257.28718</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5178896.267150002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5671963.9853</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8130296.713</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2683043.43765</v>
+        <v>2776700.49045</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3056279.653409999</v>
+        <v>3148849.19449</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4113222.2048</v>
+        <v>4209379.29013</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4982588.801700001</v>
+        <v>5082632.36908</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6895978.066749999</v>
+        <v>7053691.94124</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7975161.383570001</v>
+        <v>8168357.00017</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>9170187.631789999</v>
+        <v>9360242.57714</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10530205.68043</v>
+        <v>10736212.64966</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>12506151.63991</v>
+        <v>12697417.61573</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>14708694.79806</v>
+        <v>15057798.82078</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15553945.31742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16342847.12707</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17384108.153</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>20978.79808</v>
+        <v>25005.41296</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>11152.04693</v>
+        <v>12662.73539</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>16810.5417</v>
+        <v>23759.50925</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>38998.02916000001</v>
+        <v>44701.40311</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>61485.37845</v>
+        <v>70912.74824000002</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>108263.31409</v>
+        <v>115391.1764</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>53857.37001999999</v>
+        <v>60243.33816</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>63251.00819</v>
+        <v>66613.40656</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>111596.88889</v>
+        <v>114251.74149</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>117839.90614</v>
+        <v>131163.40144</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>128540.62145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>165049.44207</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>195081.47</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1747065.93076</v>
+        <v>1820262.37584</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2099442.91406</v>
+        <v>2178905.18284</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2687765.801970001</v>
+        <v>2807432.76903</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3016378.33501</v>
+        <v>3154824.254069999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3987975.92751</v>
+        <v>4185354.525489999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4591250.706060001</v>
+        <v>4806449.096649999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5187055.59229</v>
+        <v>5402084.3645</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5867563.513779999</v>
+        <v>6114991.856540001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6930122.792839999</v>
+        <v>7238955.561010001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7630222.56916</v>
+        <v>8240283.145109999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7951633.42887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8691304.85156</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10357681.643</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1221280.29975</v>
+        <v>1433621.83889</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1413465.83962</v>
+        <v>1625192.337319999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1818343.16118</v>
+        <v>2118574.73932</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2074751.02586</v>
+        <v>2481964.59837</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2714194.471</v>
+        <v>3149123.10873</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3252528.159419999</v>
+        <v>3678555.82171</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3682413.68541</v>
+        <v>4212488.43151</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4251158.17014</v>
+        <v>4690049.86025</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4960268.79778</v>
+        <v>5368102.382790001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5581008.690589999</v>
+        <v>6414333.334519999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6576777.53711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7088078.699400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7606341.808</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>28198.5625</v>
+        <v>26321.04348</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>26870.73935</v>
+        <v>25785.71039</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>21680.18409</v>
+        <v>20724.40849</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>19976.47848</v>
+        <v>19546.06763</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>43380.14893</v>
+        <v>41857.5639</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>60446.72439999999</v>
+        <v>60051.81427</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>71861.19806000002</v>
+        <v>73534.53261999998</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>90633.05582000001</v>
+        <v>85968.23209</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>130856.53502</v>
+        <v>133226.75564</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>226218.15908</v>
+        <v>214006.70963</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>296276.28838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>298655.80325</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>317513.839</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>138427.17808</v>
+        <v>133150.8163</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>150982.77382</v>
+        <v>151923.27449</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>213782.75804</v>
+        <v>208384.04232</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>245724.7748399999</v>
+        <v>241589.9988</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>323160.15991</v>
+        <v>336643.3798600001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>327824.09244</v>
+        <v>328085.1193899999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>395140.68826</v>
+        <v>391665.47031</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>488374.63677</v>
+        <v>494307.6924</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>602309.54456</v>
+        <v>609441.3388499999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>699141.6478299999</v>
+        <v>695674.8403799998</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>797221.6799000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>831418.7388800001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>913165.684</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1054654.55917</v>
+        <v>1274149.97911</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1235612.32645</v>
+        <v>1447483.35244</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1582880.21905</v>
+        <v>1889466.28851</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1809049.77254</v>
+        <v>2220828.53194</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2347654.16216</v>
+        <v>2770622.16497</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2864257.34258</v>
+        <v>3290418.88805</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3215411.799090001</v>
+        <v>3747288.428580001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3672150.47755</v>
+        <v>4109773.93576</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4227102.718200001</v>
+        <v>4625434.2883</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4655648.88368</v>
+        <v>5504651.784510001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5483279.56883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5958004.15727</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6375662.285</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>525785.6310099999</v>
+        <v>386640.53695</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>685977.0744399998</v>
+        <v>553712.84552</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>869422.6407899999</v>
+        <v>688858.02971</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>941627.3091499999</v>
+        <v>672859.6556999998</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1273781.45651</v>
+        <v>1036231.41676</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1338722.54664</v>
+        <v>1127893.27494</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1504641.90688</v>
+        <v>1189595.93299</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1616405.34364</v>
+        <v>1424941.99629</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1969853.99506</v>
+        <v>1870853.17822</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2049213.87857</v>
+        <v>1825949.81059</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1374855.89176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1603226.15216</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2751339.835</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>159018.9184</v>
+        <v>1969787.6599</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>173052.3147</v>
+        <v>2052826.24562</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>208800.42932</v>
+        <v>2189798.659280001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>182818.43059</v>
+        <v>2267618.43863</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>349093.55024</v>
+        <v>4218778.583389999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>370139.6281499999</v>
+        <v>4446669.911280001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>519520.45709</v>
+        <v>6964193.930399999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>628539.43655</v>
+        <v>6920102.745800001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>701126.06319</v>
+        <v>6329134.732059999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2807422.729810001</v>
+        <v>18052681.18024</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1516327.58126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14285298.78851</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>20476651.829</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>16271.26189</v>
+        <v>243884.63506</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4880.009319999999</v>
+        <v>256501.0524</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5919.8183</v>
+        <v>149617.10793</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7915.36741</v>
+        <v>257730.78337</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>23976.90817</v>
+        <v>306746.8449199999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>23939.68921</v>
+        <v>979467.36963</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>31071.82186</v>
+        <v>1297750.73704</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>38419.91523</v>
+        <v>1126216.6316</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>37833.43015</v>
+        <v>1338587.5782</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>157628.80521</v>
+        <v>2317039.52177</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>107683.40303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1075217.24399</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>404635.387</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>5951.78599</v>
+        <v>162184.59683</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>8821.493980000001</v>
+        <v>186018.16445</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>6146.00974</v>
+        <v>528578.0880699999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>6374.250309999999</v>
+        <v>481356.5403699999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>9906.85888</v>
+        <v>721759.68596</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14219.2648</v>
+        <v>853637.0004499999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11426.73568</v>
+        <v>1428047.71824</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>14282.57914</v>
+        <v>1367588.98569</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>24604.3734</v>
+        <v>1459696.09736</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>76849.28779</v>
+        <v>2908356.82098</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>88123.99795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5443810.154440001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2751868.244</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>28435.17923</v>
+        <v>242574.67836</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>26887.1097</v>
+        <v>166204.81731</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>30926.77315</v>
+        <v>249326.83995</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>38776.69929000001</v>
+        <v>279869.45052</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>55692.66354000001</v>
+        <v>322508.9349900001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>68675.24261</v>
+        <v>463146.857</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>84050.16384000001</v>
+        <v>495784.91614</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>91369.94706000002</v>
+        <v>572326.3379800002</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>108399.62795</v>
+        <v>593898.8578599999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>227457.05356</v>
+        <v>1082493.5233</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>249183.65542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1342140.02959</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1217597.233</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2578.07283</v>
+        <v>5814.6481</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1273.6515</v>
+        <v>34127.33736999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4061.3685</v>
+        <v>6230.567319999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4241.170440000001</v>
+        <v>6217.84723</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5844.125400000001</v>
+        <v>7615.301219999998</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7281.44616</v>
+        <v>11441.51435</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4365.373939999999</v>
+        <v>12810.51605</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7044.33106</v>
+        <v>12671.40836</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5974.04333</v>
+        <v>18326.5886</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7977.17098</v>
+        <v>25145.41595</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8839.616739999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>24540.83431</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>21538.329</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7841.7117</v>
+        <v>187090.25698</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>10289.54727</v>
+        <v>169773.19763</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3084.16012</v>
+        <v>3705.319190000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3624.67907</v>
+        <v>7396.01945</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7264.51114</v>
+        <v>888874.7064499999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>7145.66334</v>
+        <v>16934.65305</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5436.319779999999</v>
+        <v>884806.84632</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8212.498610000001</v>
+        <v>743057.9737000002</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>38261.76476</v>
+        <v>11839.27617</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>25627.07501</v>
+        <v>29047.91286</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>31766.10891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>32725.09871</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>29244.433</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5558.14673</v>
+        <v>87382.27879</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5719.34624</v>
+        <v>497134.35097</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>9207.851550000001</v>
+        <v>105456.43964</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8446.72999</v>
+        <v>290891.7406999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>10658.24512</v>
+        <v>498999.45904</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11803.94451</v>
+        <v>197949.57563</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>15050.89385</v>
+        <v>53307.07273</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11356.67129</v>
+        <v>41905.14129000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>11424.13004</v>
+        <v>117640.74368</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>33608.41243</v>
+        <v>342313.49239</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25117.26235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>445487.07647</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>714903.992</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>53995.84623999999</v>
+        <v>901582.8530900001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>49460.11585000001</v>
+        <v>541308.08477</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>92428.56207000001</v>
+        <v>907511.9302800001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>58352.4327</v>
+        <v>793428.7623099999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>172752.02687</v>
+        <v>1239087.2776</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>158151.30535</v>
+        <v>1615023.351280001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>299054.41009</v>
+        <v>2527404.23951</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>356640.8006499999</v>
+        <v>2712132.72727</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>364451.69948</v>
+        <v>2483154.1877</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2132691.98516</v>
+        <v>10714041.55845</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>782208.52007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5340473.31308</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>14584314.957</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>618.7117600000001</v>
+        <v>271.45485</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>528.06703</v>
+        <v>375.05132</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>702.1390200000001</v>
+        <v>588.49825</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>538.43555</v>
+        <v>576.84691</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1585.32947</v>
+        <v>2378.85159</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>886.2055799999999</v>
+        <v>7966.923470000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1653.19551</v>
+        <v>2245.37352</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1205.24637</v>
+        <v>1109.37779</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1018.15054</v>
+        <v>2385.23122</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1130.25744</v>
+        <v>11728.5235</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>21758.29723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>47152.96494</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>60795.514</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>202.68988</v>
+        <v>732.01699</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>43.67495</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>73.05951999999999</v>
+        <v>84.89196</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>277.15692</v>
+        <v>66.57515999999998</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>17.94875</v>
+        <v>15.93691</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>103.74637</v>
+        <v>55.33767</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>798.4528300000001</v>
+        <v>581.6398</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>220.13346</v>
+        <v>956.10957</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>591.2540700000001</v>
+        <v>1568.99538</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>976.19888</v>
+        <v>664.3435899999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>536.5734199999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>531.5456899999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>253.584</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>37565.51215</v>
+        <v>138270.24085</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>65149.29886</v>
+        <v>201340.51445</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>56250.68734999999</v>
+        <v>238698.97669</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>54271.50890999999</v>
+        <v>150083.87261</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>61394.93289999999</v>
+        <v>230791.58471</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>77933.12022000001</v>
+        <v>301047.32875</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>66613.08971</v>
+        <v>261454.87105</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>99787.31368000001</v>
+        <v>342138.05255</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>108567.58947</v>
+        <v>302037.17589</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>143476.48335</v>
+        <v>621850.0674500001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>201110.14614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>533220.52729</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>691500.156</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>85922.27467999999</v>
+        <v>1003231.19967</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>110725.16803</v>
+        <v>668442.8819800001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>124994.61121</v>
+        <v>1526428.32447</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>105584.94222</v>
+        <v>818742.46705</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>205258.3029399999</v>
+        <v>1459515.31499</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>231390.03833</v>
+        <v>2272210.739899999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>329897.9762500001</v>
+        <v>3816381.707660001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>427527.2288299999</v>
+        <v>3063674.66013</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>449200.57615</v>
+        <v>2652469.87572</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2075238.29191</v>
+        <v>11801208.85711</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>900224.97068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6147622.52817</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17766377.918</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4564.96027</v>
+        <v>4433.03973</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2609.2741</v>
+        <v>3265.14685</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2930.01634</v>
+        <v>3590.58996</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4586.456649999999</v>
+        <v>6277.622289999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10916.0939</v>
+        <v>11677.14252</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9553.565759999998</v>
+        <v>11454.90151</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5706.578479999998</v>
+        <v>7943.001769999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8652.817129999999</v>
+        <v>11154.74327</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11871.71992</v>
+        <v>15270.8063</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>31407.2937</v>
+        <v>36045.14165000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22841.01032</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>28521.86639</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>32466.323</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>12942.23701</v>
+        <v>35609.43082</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>11354.83632</v>
+        <v>11357.35833</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>8388.574639999999</v>
+        <v>9712.691049999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>14338.00545</v>
+        <v>15433.90607</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>20935.27783000001</v>
+        <v>26414.68089</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>32654.80715</v>
+        <v>30152.49111000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>34126.96185999999</v>
+        <v>33538.98683</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>69667.11751999999</v>
+        <v>35642.15211</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>50453.43415999999</v>
+        <v>38465.84572</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>75173.84452000001</v>
+        <v>198608.9799</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>72050.16339999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>60470.11717</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>42834.244</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3274.26534</v>
+        <v>28851.47224</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2230.44718</v>
+        <v>22196.09731</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1118.8658</v>
+        <v>62372.69793</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3160.88387</v>
+        <v>36296.77822</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6422.782099999999</v>
+        <v>14781.05388</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>11597.87435</v>
+        <v>206310.11385</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8226.717959999998</v>
+        <v>25040.74353</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3393.15318</v>
+        <v>13527.0916</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>14136.08969</v>
+        <v>151608.71283</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>14296.85341</v>
+        <v>132414.59971</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>8642.747810000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>170709.58716</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>201877.826</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>51156.82985</v>
+        <v>884132.8408599999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>48533.29958</v>
+        <v>550600.42402</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>92289.46568999998</v>
+        <v>1383121.59788</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>64308.8717</v>
+        <v>615591.71295</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>146542.07048</v>
+        <v>1343314.4336</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>151598.24104</v>
+        <v>1899135.66043</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>248086.64542</v>
+        <v>3643464.18683</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>303375.26606</v>
+        <v>2771994.59041</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>326805.79802</v>
+        <v>2310071.960140001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1919049.03679</v>
+        <v>10836863.10944</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>690571.04681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5705121.28557</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16892034.303</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>533.11054</v>
+        <v>194.7643</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>657.72126</v>
+        <v>428.90243</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>526.51041</v>
+        <v>1204.06024</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>385.20082</v>
+        <v>186.16204</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1968.64796</v>
+        <v>3514.52767</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1006.01955</v>
+        <v>6771.80977</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>602.12744</v>
+        <v>6658.97091</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>723.84777</v>
+        <v>1608.75165</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1092.89477</v>
+        <v>1537.5018</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>699.19678</v>
+        <v>1671.87243</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>818.57898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9446.234209999997</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>23042.643</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>180.3753</v>
+        <v>194.49313</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>44.44418</v>
+        <v>40.14559</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>12.04364</v>
@@ -2405,613 +2496,691 @@
         <v>210.14978</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>47.62056999999999</v>
+        <v>47.62057</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>144.31313</v>
+        <v>45.76709</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>219.88837</v>
+        <v>113.43376</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>289.365</v>
+        <v>205.34754</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>473.59673</v>
+        <v>472.22767</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>931.9989399999999</v>
+        <v>931.4926</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>695.9114299999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>761.0069999999999</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13270.49637</v>
+        <v>49815.15859</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>45295.14541</v>
+        <v>80554.80745000002</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>19729.13469</v>
+        <v>66414.64377</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>18595.37395</v>
+        <v>144746.1357</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18425.8101</v>
+        <v>59765.85586</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>24835.21735</v>
+        <v>118339.99614</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32929.05672</v>
+        <v>99622.38403</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>41425.66217</v>
+        <v>229541.98355</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>44367.04285999999</v>
+        <v>135042.82126</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>33680.06776999999</v>
+        <v>594673.6613799999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>104605.51193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>172657.52624</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>573361.572</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>64986.34421000001</v>
+        <v>256412.40598</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>53882.67857</v>
+        <v>255913.39169</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>71023.40414</v>
+        <v>716385.1041200001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>97731.61169999999</v>
+        <v>551078.3066400001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>125960.58693</v>
+        <v>788000.5515800001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>149130.21183</v>
+        <v>1252464.0442</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>186221.08001</v>
+        <v>1792177.15439</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>230002.54589</v>
+        <v>2231498.58546</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>293913.18042</v>
+        <v>2121998.36852</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>592966.1946300002</v>
+        <v>5180698.06837</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>582564.07371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3114896.271000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5051339.726</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>60459.61801</v>
+        <v>179271.74502</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>51071.31987</v>
+        <v>158005.98247</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>68013.63896</v>
+        <v>373920.52983</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>93103.66182000001</v>
+        <v>401790.66031</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>120221.54876</v>
+        <v>628399.89273</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>141908.42132</v>
+        <v>959911.5339800001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>177682.78271</v>
+        <v>1257605.9332</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>222767.57948</v>
+        <v>1734558.12545</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>282930.52366</v>
+        <v>1457715.42695</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>564146.74749</v>
+        <v>3747472.50435</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>555850.9144599999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2722353.5803</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3682697.308</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4526.7262</v>
+        <v>77140.66095999998</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2811.3587</v>
+        <v>97907.40921999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3009.765180000001</v>
+        <v>342464.57429</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4627.949880000001</v>
+        <v>149287.64633</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5739.03817</v>
+        <v>159600.65885</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7221.79051</v>
+        <v>292552.5102200001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8538.297299999998</v>
+        <v>534571.2211900001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7234.96641</v>
+        <v>496940.46001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>10982.65676</v>
+        <v>664282.94157</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>28819.44714</v>
+        <v>1433225.56402</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>26713.15925000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>392542.6907</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1368642.418</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>533895.9305199999</v>
+        <v>1096784.5912</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>694421.5425400001</v>
+        <v>1682182.81747</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>882205.0547599999</v>
+        <v>635843.2604000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>921129.18582</v>
+        <v>1570657.32064</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1291656.11688</v>
+        <v>3007494.13358</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1328341.92463</v>
+        <v>2049888.40212</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1508043.30771</v>
+        <v>2545231.00134</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1587415.00547</v>
+        <v>3049871.4965</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1927866.30168</v>
+        <v>3425519.66604</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2188432.12184</v>
+        <v>2896724.06535</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1408394.42863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6626006.1415</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>410274.02</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>42166.82899</v>
+        <v>101677.00343</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>42791.97302</v>
+        <v>284724.93597</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>54663.98148999999</v>
+        <v>221797.2425000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>64682.80310000001</v>
+        <v>551155.6303900001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>100448.71259</v>
+        <v>251225.94202</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>133238.76536</v>
+        <v>382669.5011399999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>162087.93376</v>
+        <v>1508315.50352</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>181731.6322</v>
+        <v>1084495.02608</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>234062.59024</v>
+        <v>634054.1204299998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>314133.34286</v>
+        <v>1145635.02923</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>352517.01166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1954016.46512</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1558265.603</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1044.86837</v>
+        <v>3457.65377</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>838.2049300000001</v>
+        <v>2766.739219999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2035.93787</v>
+        <v>2678.65668</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>889.6450900000001</v>
+        <v>1958.80679</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2068.248039999999</v>
+        <v>2978.04203</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2707.50591</v>
+        <v>4366.497810000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1739.14725</v>
+        <v>6983.37483</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4170.20322</v>
+        <v>6588.72084</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4530.440759999999</v>
+        <v>4998.92568</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>14513.94386</v>
+        <v>4829.294029999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5230.223380000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7257.49612</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>23359.857</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>41121.96062</v>
+        <v>98219.34965999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>41953.76809000001</v>
+        <v>281958.1967499999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>52628.04361999999</v>
+        <v>219118.58582</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>63793.15801</v>
+        <v>549196.8235999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>98380.46455</v>
+        <v>248247.89999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>130531.25945</v>
+        <v>378303.00333</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>160348.78651</v>
+        <v>1501332.12869</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>177561.42898</v>
+        <v>1077906.30524</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>229532.14948</v>
+        <v>629055.1947500001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>299619.399</v>
+        <v>1140805.7352</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>347286.7882800001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1946758.969</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1534905.746</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>57216.56362000002</v>
+        <v>121826.13784</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>51595.68008000001</v>
+        <v>131973.8517</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>983608.0226</v>
+        <v>1128744.53476</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93929.80684</v>
+        <v>169350.10911</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>103850.38554</v>
+        <v>1074467.97989</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>593926.12356</v>
+        <v>854083.76512</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>156200.97084</v>
+        <v>242883.24176</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1040078.31538</v>
+        <v>1187625.8572</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>231430.30702</v>
+        <v>303935.56494</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>874412.9426900001</v>
+        <v>1173398.92502</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>317180.76828</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>528844.5878</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2018730.241</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1956.06964</v>
+        <v>1549.32072</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1014.16685</v>
+        <v>1126.81108</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1573.91899</v>
+        <v>2001.16215</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3110.77714</v>
+        <v>2379.0183</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2338.87565</v>
+        <v>3764.57664</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1818.0296</v>
+        <v>839.2447199999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3656.0563</v>
+        <v>2336.57532</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2623.18036</v>
+        <v>3078.53092</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2130.632999999999</v>
+        <v>1845.99202</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2698.43123</v>
+        <v>2015.60733</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2779.150059999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2676.60483</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2075.397</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4395.739550000002</v>
+        <v>15145.75762</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4602.581629999999</v>
+        <v>6565.514809999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>11114.15412</v>
+        <v>8786.79421</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6645.350109999999</v>
+        <v>8468.820660000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7852.17692</v>
+        <v>7650.9317</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11041.53517</v>
+        <v>42454.12891</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9752.10176</v>
+        <v>10907.19881</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10961.66995</v>
+        <v>19902.61752</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8778.032719999997</v>
+        <v>11063.69231</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>21112.16333999999</v>
+        <v>12077.70846</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11500.43072</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10785.60402</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>70303.834</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>50864.75442999999</v>
+        <v>105131.0595</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>45978.9316</v>
+        <v>124281.52581</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>970919.9494899999</v>
+        <v>1117956.5784</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>84173.67959</v>
+        <v>158502.27015</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>93659.33296999999</v>
+        <v>1063052.47155</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>581066.5587899999</v>
+        <v>810790.3914900002</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>142792.81278</v>
+        <v>229639.46763</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1026493.46507</v>
+        <v>1164644.70876</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>220521.6413</v>
+        <v>291025.88061</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>850602.3481200002</v>
+        <v>1159305.60923</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>302901.1875000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>515382.3789500001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1946351.01</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>518846.1958900001</v>
+        <v>1076635.45679</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>685617.83548</v>
+        <v>1834933.90174</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-46738.98635</v>
+        <v>-271104.0318599999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>891882.1820800002</v>
+        <v>1952462.84192</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1288254.44393</v>
+        <v>2184252.09571</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>867654.5664300001</v>
+        <v>1578474.13814</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1513930.27063</v>
+        <v>3810663.263100001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>729068.3222899999</v>
+        <v>2946740.66538</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1930498.5849</v>
+        <v>3755638.22153</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1628152.52201</v>
+        <v>2868960.169560001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1443730.67201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8051178.018820001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-50190.618</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>112361.6609</v>
+        <v>132274.79018</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>135820.85233</v>
+        <v>168237.9683600001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>173898.82633</v>
+        <v>219440.76891</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>183165.68329</v>
+        <v>207477.23653</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>261777.8623299999</v>
+        <v>357270.8652000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>276750.0364500001</v>
+        <v>314886.0579599999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>327102.40743</v>
+        <v>445194.59744</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>362026.9285399999</v>
+        <v>470331.6915</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>404026.8290200001</v>
+        <v>496135.1686</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>524679.70579</v>
+        <v>664868.05003</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>491144.4477499999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>769449.82703</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1231540.199</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>406484.53499</v>
+        <v>944360.66661</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>549796.9831500001</v>
+        <v>1666695.93338</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-220637.81268</v>
+        <v>-490544.80077</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>708716.4987899999</v>
+        <v>1744985.60539</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1026476.5816</v>
+        <v>1826981.23051</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>590904.52998</v>
+        <v>1263588.08018</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1186827.8632</v>
+        <v>3365468.66566</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>367041.39375</v>
+        <v>2476408.97388</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1526471.75588</v>
+        <v>3259503.05293</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1103472.81622</v>
+        <v>2204092.11953</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>952586.2242600002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7281728.191790001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1281730.817</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4128</v>
+        <v>3442</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4702</v>
+        <v>3847</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5451</v>
+        <v>4588</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6508</v>
+        <v>5455</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8076</v>
+        <v>6521</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9373</v>
+        <v>7484</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>10731</v>
+        <v>8431</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>11864</v>
+        <v>9059</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>13602</v>
+        <v>10161</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9341</v>
+        <v>7860</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7495</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>